--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1907.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1907.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\WINAPPS\SLOVO\UKR\github\RTSS\rtss-pre1917\src\main\resources\csk\year-volumes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8F56FC8-4121-4B40-8D2D-A63EA61098A5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318EBDBF-BC36-4FCA-8762-337DA268E1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-60" yWindow="-60" windowWidth="38520" windowHeight="23700" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
     <sheet name="Sheet1" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +24,12 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -214,12 +219,6 @@
     <t>v</t>
   </si>
   <si>
-    <t>чc-м</t>
-  </si>
-  <si>
-    <t>чc-ж</t>
-  </si>
-  <si>
     <t>чс-о</t>
   </si>
   <si>
@@ -239,6 +238,12 @@
   </si>
   <si>
     <t>стр. X, 15, 93</t>
+  </si>
+  <si>
+    <t>чс-м</t>
+  </si>
+  <si>
+    <t>чс-ж</t>
   </si>
 </sst>
 </file>
@@ -248,7 +253,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -649,11 +654,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -666,19 +671,19 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AA14" sqref="AA14"/>
+      <selection activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="22.7109375" customWidth="1"/>
+    <col min="1" max="1" width="22.68359375" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
-    <col min="9" max="9" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.140625" customWidth="1"/>
-    <col min="13" max="13" width="11.5703125" customWidth="1"/>
+    <col min="9" max="9" width="9.83984375" customWidth="1"/>
+    <col min="11" max="11" width="11.15625" customWidth="1"/>
+    <col min="13" max="13" width="11.578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:22">
       <c r="A1" s="1" t="s">
         <v>50</v>
       </c>
@@ -710,31 +715,31 @@
         <v>59</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>62</v>
       </c>
       <c r="P1" s="7" t="s">
         <v>59</v>
       </c>
       <c r="R1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="S1" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="U1" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="S1" s="7" t="s">
+      <c r="V1" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="U1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="V1" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:22">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -798,7 +803,7 @@
         <v>6.1737615135655233E-3</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -862,7 +867,7 @@
         <v>-1.4225053078554595E-2</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22">
       <c r="A4" t="s">
         <v>2</v>
       </c>
@@ -926,7 +931,7 @@
         <v>3.6484079753268617E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22">
       <c r="A5" t="s">
         <v>3</v>
       </c>
@@ -990,7 +995,7 @@
         <v>-1.7316820339353001E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22">
       <c r="A6" t="s">
         <v>4</v>
       </c>
@@ -1054,7 +1059,7 @@
         <v>-9.2719352831345248E-3</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22">
       <c r="A7" t="s">
         <v>5</v>
       </c>
@@ -1118,7 +1123,7 @@
         <v>-5.9667208246949599E-3</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22">
       <c r="A8" t="s">
         <v>6</v>
       </c>
@@ -1182,7 +1187,7 @@
         <v>5.6778226331530846E-3</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22">
       <c r="A9" t="s">
         <v>7</v>
       </c>
@@ -1245,7 +1250,7 @@
         <v>1.5230028234512361E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22">
       <c r="A10" t="s">
         <v>8</v>
       </c>
@@ -1308,7 +1313,7 @@
         <v>-6.623851460909691E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22">
       <c r="A11" t="s">
         <v>9</v>
       </c>
@@ -1371,7 +1376,7 @@
         <v>2.3170799977606293E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22">
       <c r="A12" t="s">
         <v>10</v>
       </c>
@@ -1434,7 +1439,7 @@
         <v>4.2258944328573023E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:22">
       <c r="A13" t="s">
         <v>11</v>
       </c>
@@ -1497,7 +1502,7 @@
         <v>-3.6504501113515886E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22">
       <c r="A14" t="s">
         <v>12</v>
       </c>
@@ -1560,7 +1565,7 @@
         <v>1.4392986742354452E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:22">
       <c r="A15" t="s">
         <v>13</v>
       </c>
@@ -1623,7 +1628,7 @@
         <v>3.0013749754470354E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:22">
       <c r="A16" t="s">
         <v>14</v>
       </c>
@@ -1686,7 +1691,7 @@
         <v>-2.9731379731380514E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:22">
       <c r="A17" t="s">
         <v>15</v>
       </c>
@@ -1749,7 +1754,7 @@
         <v>4.5459651750608288E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:22">
       <c r="A18" t="s">
         <v>16</v>
       </c>
@@ -1812,7 +1817,7 @@
         <v>-5.2344255544443996E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:22">
       <c r="A19" t="s">
         <v>17</v>
       </c>
@@ -1875,7 +1880,7 @@
         <v>3.7267080745344572E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:22">
       <c r="A20" t="s">
         <v>18</v>
       </c>
@@ -1938,7 +1943,7 @@
         <v>-4.0277777777777857E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:22">
       <c r="A21" t="s">
         <v>19</v>
       </c>
@@ -2001,7 +2006,7 @@
         <v>4.4527599170795185E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:22">
       <c r="A22" t="s">
         <v>20</v>
       </c>
@@ -2064,7 +2069,7 @@
         <v>4.4671265662397985E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22">
       <c r="A23" t="s">
         <v>21</v>
       </c>
@@ -2127,7 +2132,7 @@
         <v>-3.6998784933171436E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22">
       <c r="A24" t="s">
         <v>22</v>
       </c>
@@ -2190,7 +2195,7 @@
         <v>-3.8317033020238256E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22">
       <c r="A25" t="s">
         <v>23</v>
       </c>
@@ -2253,7 +2258,7 @@
         <v>-4.1283476503281236E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22">
       <c r="A26" t="s">
         <v>24</v>
       </c>
@@ -2316,7 +2321,7 @@
         <v>-3.0221103913483205E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22">
       <c r="A27" t="s">
         <v>25</v>
       </c>
@@ -2379,7 +2384,7 @@
         <v>1.659383114827051E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22">
       <c r="A28" t="s">
         <v>26</v>
       </c>
@@ -2442,7 +2447,7 @@
         <v>1.7594874322320209E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22">
       <c r="A29" t="s">
         <v>27</v>
       </c>
@@ -2505,7 +2510,7 @@
         <v>5.3846153846151878E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:22">
       <c r="A30" t="s">
         <v>28</v>
       </c>
@@ -2568,7 +2573,7 @@
         <v>-3.2215658540643233E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22">
       <c r="A31" t="s">
         <v>29</v>
       </c>
@@ -2631,7 +2636,7 @@
         <v>-2.1519428471862057E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22">
       <c r="A32" t="s">
         <v>30</v>
       </c>
@@ -2694,7 +2699,7 @@
         <v>-1.0290170372670104E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:22">
       <c r="A33" t="s">
         <v>31</v>
       </c>
@@ -2757,7 +2762,7 @@
         <v>-2.2778459137025919E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:22">
       <c r="A34" t="s">
         <v>32</v>
       </c>
@@ -2820,7 +2825,7 @@
         <v>-4.4226624546073623E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:22">
       <c r="A35" t="s">
         <v>33</v>
       </c>
@@ -2883,7 +2888,7 @@
         <v>-1.8937287611983322E-2</v>
       </c>
     </row>
-    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:22">
       <c r="A36" t="s">
         <v>34</v>
       </c>
@@ -2946,7 +2951,7 @@
         <v>4.1136873597480417E-4</v>
       </c>
     </row>
-    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:22">
       <c r="A37" t="s">
         <v>35</v>
       </c>
@@ -3009,7 +3014,7 @@
         <v>-6.3139566032681671E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:22">
       <c r="A38" t="s">
         <v>36</v>
       </c>
@@ -3072,7 +3077,7 @@
         <v>-2.0172420611380915E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:22">
       <c r="A39" t="s">
         <v>37</v>
       </c>
@@ -3135,7 +3140,7 @@
         <v>8.3952477145885496E-3</v>
       </c>
     </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:22">
       <c r="A40" t="s">
         <v>38</v>
       </c>
@@ -3198,7 +3203,7 @@
         <v>-2.3526179880224873E-2</v>
       </c>
     </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:22">
       <c r="A41" t="s">
         <v>39</v>
       </c>
@@ -3261,7 +3266,7 @@
         <v>1.4995543672014833E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:22">
       <c r="A42" t="s">
         <v>40</v>
       </c>
@@ -3324,7 +3329,7 @@
         <v>4.3137137016774574E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:22">
       <c r="A43" t="s">
         <v>41</v>
       </c>
@@ -3387,7 +3392,7 @@
         <v>-2.3762497324732124E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:22">
       <c r="A44" t="s">
         <v>42</v>
       </c>
@@ -3450,7 +3455,7 @@
         <v>2.3639168796105281E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:22">
       <c r="A45" t="s">
         <v>43</v>
       </c>
@@ -3513,7 +3518,7 @@
         <v>-7.7890874659722442E-2</v>
       </c>
     </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:22">
       <c r="A46" t="s">
         <v>44</v>
       </c>
@@ -3576,7 +3581,7 @@
         <v>3.5540134337775697E-2</v>
       </c>
     </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:22">
       <c r="A47" t="s">
         <v>45</v>
       </c>
@@ -3639,7 +3644,7 @@
         <v>4.4590163934426386E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:22">
       <c r="A48" t="s">
         <v>46</v>
       </c>
@@ -3702,7 +3707,7 @@
         <v>1.0182126731113073E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:22">
       <c r="A49" t="s">
         <v>47</v>
       </c>
@@ -3765,7 +3770,7 @@
         <v>-1.7851902222542293E-2</v>
       </c>
     </row>
-    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:22">
       <c r="A50" t="s">
         <v>48</v>
       </c>
@@ -3828,7 +3833,7 @@
         <v>2.1616871704743801E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:22">
       <c r="A51" t="s">
         <v>49</v>
       </c>
@@ -3891,7 +3896,7 @@
         <v>-5.3859131168284335E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:22">
       <c r="A52" t="s">
         <v>55</v>
       </c>
@@ -3954,14 +3959,14 @@
         <v>-6.7713280523367558E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:22">
       <c r="H53" s="2"/>
       <c r="I53" s="2"/>
       <c r="J53" s="2"/>
     </row>
-    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:22">
       <c r="A54" s="1" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B54" s="4">
         <f>SUM(B2:B51)</f>
@@ -3992,7 +3997,7 @@
         <v>3145617</v>
       </c>
     </row>
-    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:22">
       <c r="B55" s="4">
         <f>B52-B54</f>
         <v>0</v>

--- a/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1907.xlsx
+++ b/rtss-pre1917/src/main/resources/csk-dvizhenie-evropriskoi-chasti-rossii/year-volumes/1907.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\github\RTSS\rtss-pre1917\src\main\resources\csk-dvizhenie-evropriskoi-chasti-rossii\year-volumes\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{318EBDBF-BC36-4FCA-8762-337DA268E1D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3BF4D2C3-8747-470F-994C-5D0CCEA0112B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="82605" yWindow="0" windowWidth="31005" windowHeight="23295" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
+    <workbookView xWindow="84735" yWindow="1755" windowWidth="29700" windowHeight="16770" activeTab="1" xr2:uid="{F0F53497-2088-47E8-B86A-A83077699C03}"/>
   </bookViews>
   <sheets>
     <sheet name="note" sheetId="2" r:id="rId1"/>
@@ -671,7 +671,8 @@
   <dimension ref="A1:V55"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P1" sqref="P1"/>
+      <pane ySplit="1" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P1" sqref="P1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
